--- a/test-export.xlsx
+++ b/test-export.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="120">
   <si>
     <t>ALCALDÍA MUNICIPAL DE GUADALAJARA DE BUGA</t>
   </si>
@@ -46,13 +46,13 @@
     <t>Página 1 de 1</t>
   </si>
   <si>
-    <t>NUMERO DE CONTRATO: TEST-001</t>
+    <t>NUMERO DE CONTRATO: 001-005</t>
   </si>
   <si>
     <t>VALOR:</t>
   </si>
   <si>
-    <t>CONTRATISTA: Contratista Test</t>
+    <t>CONTRATISTA: Cristofer</t>
   </si>
   <si>
     <t>ETAPA PRECONTRACTUAL</t>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>FICHA MGA (PROCESOS DE INVERSION)</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t/>
@@ -1637,7 +1640,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="11">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -1694,10 +1697,10 @@
         <v>17</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1705,16 +1708,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1722,16 +1725,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1739,16 +1742,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1756,13 +1759,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>17</v>
@@ -1773,16 +1776,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1790,16 +1793,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1807,16 +1810,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1824,16 +1827,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1841,16 +1844,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1858,16 +1861,16 @@
         <v>11</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1875,16 +1878,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1892,16 +1895,16 @@
         <v>13</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1909,16 +1912,16 @@
         <v>14</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1926,16 +1929,16 @@
         <v>15</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1943,16 +1946,16 @@
         <v>16</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1960,16 +1963,16 @@
         <v>17</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1977,16 +1980,16 @@
         <v>18</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1994,16 +1997,16 @@
         <v>19</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2011,16 +2014,16 @@
         <v>20</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2028,16 +2031,16 @@
         <v>21</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2045,16 +2048,16 @@
         <v>22</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2062,16 +2065,16 @@
         <v>23</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2079,21 +2082,21 @@
         <v>24</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -2105,16 +2108,16 @@
         <v>25</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2122,16 +2125,16 @@
         <v>26</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2139,16 +2142,16 @@
         <v>27</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2156,16 +2159,16 @@
         <v>28</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2173,16 +2176,16 @@
         <v>29</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2190,16 +2193,16 @@
         <v>30</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="38.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2207,16 +2210,16 @@
         <v>31</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2224,16 +2227,16 @@
         <v>32</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2241,16 +2244,16 @@
         <v>33</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2258,16 +2261,16 @@
         <v>34</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2275,16 +2278,16 @@
         <v>35</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2292,16 +2295,16 @@
         <v>36</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2309,16 +2312,16 @@
         <v>37</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2326,16 +2329,16 @@
         <v>38</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2343,16 +2346,16 @@
         <v>39</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2360,16 +2363,16 @@
         <v>40</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2377,16 +2380,16 @@
         <v>41</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2394,21 +2397,21 @@
         <v>42</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
@@ -2420,16 +2423,16 @@
         <v>43</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2437,16 +2440,16 @@
         <v>44</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2454,16 +2457,16 @@
         <v>45</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2471,16 +2474,16 @@
         <v>46</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D59" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2488,16 +2491,16 @@
         <v>47</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D60" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2505,16 +2508,16 @@
         <v>48</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D61" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2522,16 +2525,16 @@
         <v>49</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2539,7 +2542,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" s="36"/>
       <c r="D63" s="36"/>
@@ -2550,7 +2553,7 @@
         <v>51</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" s="40"/>
       <c r="D64" s="40"/>
@@ -2606,7 +2609,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2632,7 +2635,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2663,7 +2666,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="49">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="E7" s="49"/>
     </row>
@@ -2717,13 +2720,13 @@
         <v>16</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2731,16 +2734,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2748,16 +2751,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2765,16 +2768,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2782,16 +2785,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2799,16 +2802,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2816,16 +2819,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2833,16 +2836,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2850,16 +2853,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2867,16 +2870,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2884,16 +2887,16 @@
         <v>11</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2901,16 +2904,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2918,16 +2921,16 @@
         <v>13</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2935,16 +2938,16 @@
         <v>14</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F25" s="54"/>
     </row>
@@ -2953,16 +2956,16 @@
         <v>15</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F26" s="54"/>
     </row>
@@ -2971,16 +2974,16 @@
         <v>16</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2988,16 +2991,16 @@
         <v>17</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3005,16 +3008,16 @@
         <v>18</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3022,16 +3025,16 @@
         <v>19</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3039,16 +3042,16 @@
         <v>20</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3056,16 +3059,16 @@
         <v>21</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3073,16 +3076,16 @@
         <v>22</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3090,16 +3093,16 @@
         <v>23</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3107,21 +3110,21 @@
         <v>24</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" s="56"/>
       <c r="C36" s="56"/>
@@ -3133,16 +3136,16 @@
         <v>25</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3150,16 +3153,16 @@
         <v>26</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3167,16 +3170,16 @@
         <v>27</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3184,16 +3187,16 @@
         <v>28</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3201,16 +3204,16 @@
         <v>29</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3218,16 +3221,16 @@
         <v>30</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="38.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3235,16 +3238,16 @@
         <v>31</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3252,16 +3255,16 @@
         <v>32</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3269,16 +3272,16 @@
         <v>33</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3286,16 +3289,16 @@
         <v>34</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3303,16 +3306,16 @@
         <v>35</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3320,16 +3323,16 @@
         <v>36</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3337,16 +3340,16 @@
         <v>37</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3354,16 +3357,16 @@
         <v>38</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3371,16 +3374,16 @@
         <v>39</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3388,16 +3391,16 @@
         <v>40</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3405,16 +3408,16 @@
         <v>41</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3422,21 +3425,21 @@
         <v>42</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
@@ -3448,16 +3451,16 @@
         <v>43</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F56" s="58"/>
     </row>
@@ -3466,16 +3469,16 @@
         <v>44</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F57" s="58"/>
     </row>
@@ -3484,16 +3487,16 @@
         <v>45</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F58" s="58"/>
     </row>
@@ -3502,16 +3505,16 @@
         <v>46</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D59" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F59" s="58"/>
     </row>
@@ -3520,16 +3523,16 @@
         <v>47</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D60" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3537,16 +3540,16 @@
         <v>48</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D61" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3554,16 +3557,16 @@
         <v>49</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3571,7 +3574,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" s="36"/>
       <c r="D63" s="36"/>
@@ -3582,7 +3585,7 @@
         <v>51</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" s="40"/>
       <c r="D64" s="40"/>
@@ -3637,7 +3640,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3663,7 +3666,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -3694,7 +3697,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="49">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="E7" s="49"/>
     </row>
@@ -3748,13 +3751,13 @@
         <v>16</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3762,16 +3765,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3779,16 +3782,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3796,16 +3799,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3813,16 +3816,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3830,16 +3833,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3847,16 +3850,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3864,16 +3867,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3881,16 +3884,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3898,16 +3901,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3915,16 +3918,16 @@
         <v>11</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3932,21 +3935,21 @@
         <v>12</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -3958,16 +3961,16 @@
         <v>13</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3975,16 +3978,16 @@
         <v>14</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3992,16 +3995,16 @@
         <v>15</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4009,16 +4012,16 @@
         <v>16</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4026,16 +4029,16 @@
         <v>17</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4043,16 +4046,16 @@
         <v>18</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4060,16 +4063,16 @@
         <v>19</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4077,16 +4080,16 @@
         <v>20</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4094,21 +4097,21 @@
         <v>21</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
@@ -4120,16 +4123,16 @@
         <v>22</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4137,16 +4140,16 @@
         <v>23</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4154,16 +4157,16 @@
         <v>24</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4171,16 +4174,16 @@
         <v>25</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4188,16 +4191,16 @@
         <v>26</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4205,16 +4208,16 @@
         <v>27</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4222,7 +4225,7 @@
         <v>28</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
@@ -4233,7 +4236,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
@@ -4288,7 +4291,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4314,7 +4317,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -4345,7 +4348,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="49">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="E7" s="49"/>
     </row>
@@ -4396,16 +4399,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4413,16 +4416,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4430,16 +4433,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4447,16 +4450,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4464,16 +4467,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4481,16 +4484,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4498,16 +4501,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4515,16 +4518,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4532,16 +4535,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4549,16 +4552,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="38.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4566,16 +4569,16 @@
         <v>11</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4583,16 +4586,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4600,16 +4603,16 @@
         <v>13</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4617,16 +4620,16 @@
         <v>14</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4634,16 +4637,16 @@
         <v>15</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4651,16 +4654,16 @@
         <v>16</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4668,16 +4671,16 @@
         <v>17</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4685,16 +4688,16 @@
         <v>18</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4702,16 +4705,16 @@
         <v>19</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4719,16 +4722,16 @@
         <v>20</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4736,16 +4739,16 @@
         <v>21</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4753,21 +4756,21 @@
         <v>22</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33" s="72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -4779,16 +4782,16 @@
         <v>23</v>
       </c>
       <c r="B35" s="73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35" s="74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E35" s="75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4796,16 +4799,16 @@
         <v>24</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" s="74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36" s="75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4813,16 +4816,16 @@
         <v>25</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37" s="74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" s="74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37" s="75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4830,16 +4833,16 @@
         <v>26</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38" s="74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" s="74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E38" s="75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4847,16 +4850,16 @@
         <v>27</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4864,16 +4867,16 @@
         <v>28</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4881,16 +4884,16 @@
         <v>29</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4898,16 +4901,16 @@
         <v>30</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4915,16 +4918,16 @@
         <v>31</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4932,21 +4935,21 @@
         <v>32</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -4958,16 +4961,16 @@
         <v>33</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4975,16 +4978,16 @@
         <v>34</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4992,16 +4995,16 @@
         <v>35</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -5009,16 +5012,16 @@
         <v>36</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -5026,16 +5029,16 @@
         <v>37</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5043,21 +5046,21 @@
         <v>38</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="17.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -5069,16 +5072,16 @@
         <v>39</v>
       </c>
       <c r="B53" s="76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -5086,16 +5089,16 @@
         <v>40</v>
       </c>
       <c r="B54" s="76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -5103,16 +5106,16 @@
         <v>41</v>
       </c>
       <c r="B55" s="76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -5120,16 +5123,16 @@
         <v>42</v>
       </c>
       <c r="B56" s="76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="38.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5137,16 +5140,16 @@
         <v>43</v>
       </c>
       <c r="B57" s="76" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5154,16 +5157,16 @@
         <v>44</v>
       </c>
       <c r="B58" s="76" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -5171,16 +5174,16 @@
         <v>45</v>
       </c>
       <c r="B59" s="76" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C59" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D59" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -5188,16 +5191,16 @@
         <v>46</v>
       </c>
       <c r="B60" s="76" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D60" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -5205,16 +5208,16 @@
         <v>47</v>
       </c>
       <c r="B61" s="76" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D61" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -5222,16 +5225,16 @@
         <v>48</v>
       </c>
       <c r="B62" s="76" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -5239,7 +5242,7 @@
         <v>49</v>
       </c>
       <c r="B63" s="76" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C63" s="36"/>
       <c r="D63" s="36"/>
@@ -5250,7 +5253,7 @@
         <v>50</v>
       </c>
       <c r="B64" s="76" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C64" s="36"/>
       <c r="D64" s="36"/>
@@ -5261,7 +5264,7 @@
         <v>51</v>
       </c>
       <c r="B65" s="76" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C65" s="36"/>
       <c r="D65" s="36"/>
